--- a/classfiers/nano/welm/nearmiss/nano_welm_tanh_nearmiss_results.xlsx
+++ b/classfiers/nano/welm/nearmiss/nano_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.65</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7769423558897243</v>
+        <v>0.8864265927977839</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7272727272727272</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E3" t="n">
-        <v>0.783068783068783</v>
+        <v>0.6343490304709141</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7078947368421054</v>
+        <v>0.7756232686980609</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.75</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9211956521739131</v>
+        <v>0.8176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6737967914438503</v>
+        <v>0.7852941176470589</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7043589743589743</v>
+        <v>0.7017069701280227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5082661198450673</v>
+        <v>0.4944272445820433</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6136498495119185</v>
+        <v>0.5958216090643934</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7725796638836752</v>
+        <v>0.7798680136874694</v>
       </c>
     </row>
   </sheetData>
